--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{7A07272D-F503-4EB6-84A4-B8B086B16C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB9110E4-C894-422D-8133-9A4DC7529525}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{E4DEA858-69A5-4BD2-84F7-78689CEF98CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF963B37-A042-4F80-97A1-381792616742}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F12A5210-E3A8-4A72-84D1-E0ABC4AE18A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="31" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId1"/>
+    <sheet name="31" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="237">
   <si>
     <t>perfil</t>
   </si>
@@ -506,6 +507,249 @@
   </si>
   <si>
     <t>tabata_vellozo</t>
+  </si>
+  <si>
+    <t>well_nuk</t>
+  </si>
+  <si>
+    <t>guinasci_oitotrintaeum</t>
+  </si>
+  <si>
+    <t>vitorietakkk</t>
+  </si>
+  <si>
+    <t>daniel_henrique635</t>
+  </si>
+  <si>
+    <t>jean_santoss8</t>
+  </si>
+  <si>
+    <t>diegobryanmartinsl</t>
+  </si>
+  <si>
+    <t>sansao.nn</t>
+  </si>
+  <si>
+    <t>gabriel_moreli</t>
+  </si>
+  <si>
+    <t>diogoshufler</t>
+  </si>
+  <si>
+    <t>leandro_rpbru</t>
+  </si>
+  <si>
+    <t>j3.jpeg</t>
+  </si>
+  <si>
+    <t>nicolaszaramello</t>
+  </si>
+  <si>
+    <t>victtorb.orvieddo</t>
+  </si>
+  <si>
+    <t>marcos_2700</t>
+  </si>
+  <si>
+    <t>fernanda_beck_</t>
+  </si>
+  <si>
+    <t>danilomartinellib</t>
+  </si>
+  <si>
+    <t>rafaelsilker2</t>
+  </si>
+  <si>
+    <t>euluuck</t>
+  </si>
+  <si>
+    <t>guiprino</t>
+  </si>
+  <si>
+    <t>richardinhow99</t>
+  </si>
+  <si>
+    <t>dbmt06</t>
+  </si>
+  <si>
+    <t>alexandrejr2005_</t>
+  </si>
+  <si>
+    <t>bielgsales</t>
+  </si>
+  <si>
+    <t>cristiancamargoc</t>
+  </si>
+  <si>
+    <t>adalberocavalcanti</t>
+  </si>
+  <si>
+    <t>renatoratke</t>
+  </si>
+  <si>
+    <t>febassan</t>
+  </si>
+  <si>
+    <t>eu.marcio.alves</t>
+  </si>
+  <si>
+    <t>isabelsalvatti</t>
+  </si>
+  <si>
+    <t>janainablessa</t>
+  </si>
+  <si>
+    <t>vtrjnr</t>
+  </si>
+  <si>
+    <t>caduperol</t>
+  </si>
+  <si>
+    <t>katia.gomes71</t>
+  </si>
+  <si>
+    <t>ocaradogrowth</t>
+  </si>
+  <si>
+    <t>clubeleiturabusiness</t>
+  </si>
+  <si>
+    <t>felipereinheimeroficial</t>
+  </si>
+  <si>
+    <t>lucimaranaomishirahata</t>
+  </si>
+  <si>
+    <t>joseledelazeri</t>
+  </si>
+  <si>
+    <t>dynamus_jr</t>
+  </si>
+  <si>
+    <t>_h3rculano</t>
+  </si>
+  <si>
+    <t>deibsonsilvaoficial</t>
+  </si>
+  <si>
+    <t>filipewillsantos</t>
+  </si>
+  <si>
+    <t>alves.laurence</t>
+  </si>
+  <si>
+    <t>guilherme903025100</t>
+  </si>
+  <si>
+    <t>edilanymarcia</t>
+  </si>
+  <si>
+    <t>anandacorretoraseguros</t>
+  </si>
+  <si>
+    <t>wagner_dbf</t>
+  </si>
+  <si>
+    <t>nalva_yoshi</t>
+  </si>
+  <si>
+    <t>penelope_naty</t>
+  </si>
+  <si>
+    <t>emanuelyalencar</t>
+  </si>
+  <si>
+    <t>ariferraresi</t>
+  </si>
+  <si>
+    <t>alexandrerozentraub</t>
+  </si>
+  <si>
+    <t>quickreadbr</t>
+  </si>
+  <si>
+    <t>saiurysouza1.3</t>
+  </si>
+  <si>
+    <t>mariana.pitton71</t>
+  </si>
+  <si>
+    <t>lumyokura</t>
+  </si>
+  <si>
+    <t>paulopereira_pa</t>
+  </si>
+  <si>
+    <t>vitorhugo.lima.5458</t>
+  </si>
+  <si>
+    <t>rubia.fer</t>
+  </si>
+  <si>
+    <t>dybarth</t>
+  </si>
+  <si>
+    <t>netaogroh</t>
+  </si>
+  <si>
+    <t>lucianaoliveira7642</t>
+  </si>
+  <si>
+    <t>jacqueferreiralopes</t>
+  </si>
+  <si>
+    <t>_gabirigaud_</t>
+  </si>
+  <si>
+    <t>samuel.caoli</t>
+  </si>
+  <si>
+    <t>marialumoda</t>
+  </si>
+  <si>
+    <t>andersonarj_</t>
+  </si>
+  <si>
+    <t>joaovitor.silvasantos.14268</t>
+  </si>
+  <si>
+    <t>belitamoda</t>
+  </si>
+  <si>
+    <t>cleber.c_</t>
+  </si>
+  <si>
+    <t>nick.doge</t>
+  </si>
+  <si>
+    <t>thadeu.lacerda</t>
+  </si>
+  <si>
+    <t>rafaeel_1261</t>
+  </si>
+  <si>
+    <t>rayssalorenna</t>
+  </si>
+  <si>
+    <t>arthurdotrafego</t>
+  </si>
+  <si>
+    <t>welitonmkt</t>
+  </si>
+  <si>
+    <t>nicosilva_33</t>
+  </si>
+  <si>
+    <t>fabricio_bullmotors</t>
+  </si>
+  <si>
+    <t>msandra15</t>
+  </si>
+  <si>
+    <t>danielaa_franca</t>
+  </si>
+  <si>
+    <t>ludfago</t>
   </si>
 </sst>
 </file>
@@ -858,10 +1102,4375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BF5953-A94F-4998-AE57-561D65206468}">
+  <dimension ref="A1:C395"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.62886574074074075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.62894675925925925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.6290162037037037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.62908564814814816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.62915509259259261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.62922453703703707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.62929398148148141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.62936342592592587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.62944444444444447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.62951388888888882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.62958333333333327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.62965277777777773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.62973379629629633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.62980324074074068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.62987268518518513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.62994212962962959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.63001157407407404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.63085648148148155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.63093750000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.63101851851851853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.63109953703703703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.63118055555555552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.63126157407407402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.63134259259259262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.63145833333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.63157407407407407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.63170138888888883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.63181712962962966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.63193287037037038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.63282407407407404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.63293981481481476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.63306712962962963</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.63317129629629632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.63328703703703704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.63340277777777776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.63351851851851848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.63363425925925931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.63375000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.63385416666666672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.63396990740740744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.63414351851851858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.63425925925925919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.63443287037037044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.63453703703703701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.63465277777777784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.63476851851851845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.63488425925925929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.63505787037037031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.63518518518518519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.63530092592592591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.63553240740740746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.63563657407407403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.63576388888888891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.63587962962962963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.63599537037037035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.63612268518518522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.63684027777777785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.6369907407407408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.63714120370370375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.6372916666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.63744212962962965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.6375925925925926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.63773148148148151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.63788194444444446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.63803240740740741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.63818287037037036</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.63833333333333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.63848379629629626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.63863425925925921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.63878472222222216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.63893518518518522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.63908564814814817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.63923611111111112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.63938657407407407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.63953703703703701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.63968749999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.63983796296296302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.64015046296296296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.64030092592592591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.64045138888888886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.64060185185185181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.64075231481481476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.64090277777777771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.64105324074074077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.64120370370370372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.64135416666666667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.64150462962962962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.64177083333333329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.64184027777777775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.64192129629629624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.6419907407407407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.64206018518518515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.64212962962962961</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.64219907407407406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.64228009259259256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.64234953703703701</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.64241898148148147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.64248842592592592</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.64255787037037038</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.64262731481481483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.64270833333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.64277777777777778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.64284722222222224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.64357638888888891</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.64366898148148144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.64374999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.64383101851851854</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.64391203703703703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.64400462962962968</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.64408564814814817</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.64420138888888889</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.64431712962962961</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.64443287037037034</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.64456018518518521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.64468749999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.64571759259259254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.64596064814814813</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.64607638888888885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.64619212962962969</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.64634259259259264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.64645833333333336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.64659722222222216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.64678240740740744</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.6470717592592593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.64719907407407407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.64731481481481479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.64743055555555562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.64754629629629623</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.6476736111111111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.64780092592592597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.6479166666666667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.64803240740740742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.6481365740740741</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.64826388888888886</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.64837962962962969</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.64850694444444446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.64862268518518518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.6487384259259259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.64892361111111108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.64902777777777776</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.64924768518518516</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.64995370370370364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.65010416666666659</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.65025462962962965</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.6504050925925926</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.65055555555555555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.65071759259259265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.6508680555555556</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.65101851851851855</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.6511689814814815</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.65131944444444445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.65149305555555559</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.65164351851851854</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.65179398148148149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.65194444444444444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.65209490740740739</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.65225694444444449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.65243055555555551</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.65260416666666665</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.65278935185185183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.65293981481481478</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.65315972222222218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>134</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.65331018518518513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.65346064814814808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>131</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.65361111111111114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.65376157407407409</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>127</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.65391203703703704</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.65406249999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.65421296296296294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.65436342592592589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0.65452546296296299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>117</v>
+      </c>
+      <c r="B176" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0.65467592592592594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>115</v>
+      </c>
+      <c r="B177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0.65482638888888889</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0.65577546296296296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>127</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0.65585648148148146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>132</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0.65593749999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.6560300925925926</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0.65611111111111109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.65619212962962969</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>122</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0.65628472222222223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.65640046296296295</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>142</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.65651620370370367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0.6566319444444445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0.65674768518518511</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0.65687499999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0.65784722222222225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0.65796296296296297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0.65807870370370369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.65819444444444442</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.65832175925925929</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0.65843750000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0.65855324074074073</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0.65865740740740741</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>187</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0.65877314814814814</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>185</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0.65894675925925927</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>184</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.65907407407407403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>183</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0.65917824074074072</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.65930555555555559</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.65940972222222227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0.65952546296296299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>139</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0.65962962962962968</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>138</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0.65973379629629625</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>134</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0.65984953703703708</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>132</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0.6599652777777778</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0.66008101851851853</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>129</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0.66018518518518521</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>127</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0.66030092592592593</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>125</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0.66041666666666665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>119</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0.66055555555555556</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>121</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0.66067129629629628</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>122</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0.66079861111111116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>117</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0.66090277777777773</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>115</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0.66101851851851856</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>192</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0.66170138888888885</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>191</v>
+      </c>
+      <c r="B219" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0.6618518518518518</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>197</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0.66200231481481475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>195</v>
+      </c>
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0.66215277777777781</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>190</v>
+      </c>
+      <c r="B222" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0.66230324074074076</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>189</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0.66245370370370371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0.66260416666666666</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>196</v>
+      </c>
+      <c r="B225" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0.66275462962962961</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>187</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0.66289351851851852</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>186</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0.66304398148148147</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>185</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0.66319444444444442</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0.66334490740740748</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>183</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0.66349537037037043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>142</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0.66364583333333338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>141</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0.66379629629629633</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>140</v>
+      </c>
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0.66393518518518524</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>139</v>
+      </c>
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0.66408564814814819</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>138</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0.66423611111111114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>134</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0.66438657407407409</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0.66453703703703704</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>131</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0.66467592592592595</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>129</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0.6648263888888889</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>127</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0.66497685185185185</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>125</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0.6651273148148148</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>119</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0.66527777777777775</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>121</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0.6654282407407407</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>122</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0.66557870370370364</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>117</v>
+      </c>
+      <c r="B245" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0.66572916666666659</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>115</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0.6658680555555555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>198</v>
+      </c>
+      <c r="B247" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0.66607638888888887</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>199</v>
+      </c>
+      <c r="B248" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0.66614583333333333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0.66621527777777778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>201</v>
+      </c>
+      <c r="B250" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0.66628472222222224</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>202</v>
+      </c>
+      <c r="B251" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0.66635416666666669</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>203</v>
+      </c>
+      <c r="B252" t="s">
+        <v>36</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0.66643518518518519</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>204</v>
+      </c>
+      <c r="B253" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0.66650462962962964</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>205</v>
+      </c>
+      <c r="B254" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0.6665740740740741</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0.66664351851851855</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>207</v>
+      </c>
+      <c r="B256" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0.66671296296296301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>208</v>
+      </c>
+      <c r="B257" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0.6667939814814815</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>209</v>
+      </c>
+      <c r="B258" t="s">
+        <v>36</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0.66686342592592596</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>210</v>
+      </c>
+      <c r="B259" t="s">
+        <v>36</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0.66693287037037041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>211</v>
+      </c>
+      <c r="B260" t="s">
+        <v>36</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0.66700231481481476</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>212</v>
+      </c>
+      <c r="B261" t="s">
+        <v>36</v>
+      </c>
+      <c r="C261" s="1">
+        <v>0.66707175925925932</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>213</v>
+      </c>
+      <c r="B262" t="s">
+        <v>36</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0.66715277777777782</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>214</v>
+      </c>
+      <c r="B263" t="s">
+        <v>36</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0.66722222222222216</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>129</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0.66796296296296298</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>122</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0.66804398148148147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>204</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="1">
+        <v>0.66813657407407412</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>202</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0.66821759259259261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>208</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="1">
+        <v>0.66829861111111111</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>209</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0.6683796296296296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>201</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0.6684606481481481</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>127</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0.6686805555555555</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>127</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="1">
+        <v>0.66880787037037026</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>134</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0.66893518518518524</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>119</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="1">
+        <v>0.6690625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>215</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0.67003472222222227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>216</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0.67013888888888884</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>209</v>
+      </c>
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0.67027777777777775</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>208</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0.67039351851851858</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>206</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0.67056712962962972</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>204</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0.67069444444444448</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>202</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" s="1">
+        <v>0.67079861111111105</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>201</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0.67093749999999996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>200</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0.67106481481481473</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>198</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" s="1">
+        <v>0.67123842592592586</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>139</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0.6713541666666667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>138</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0.67148148148148146</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>134</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0.67160879629629633</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>132</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" s="1">
+        <v>0.67174768518518524</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>131</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>129</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0.67202546296296306</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>127</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0.67214120370370367</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>125</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0.67226851851851854</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>119</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0.67238425925925915</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>121</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>122</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" s="1">
+        <v>0.67261574074074071</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>117</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" s="1">
+        <v>0.67274305555555547</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>115</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" s="1">
+        <v>0.67287037037037034</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>215</v>
+      </c>
+      <c r="B298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0.67356481481481489</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>216</v>
+      </c>
+      <c r="B299" t="s">
+        <v>19</v>
+      </c>
+      <c r="C299" s="1">
+        <v>0.67371527777777773</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>209</v>
+      </c>
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" s="1">
+        <v>0.67386574074074079</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>208</v>
+      </c>
+      <c r="B301" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0.67401620370370363</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>217</v>
+      </c>
+      <c r="B302" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0.67416666666666669</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>206</v>
+      </c>
+      <c r="B303" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0.67431712962962964</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>204</v>
+      </c>
+      <c r="B304" t="s">
+        <v>19</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0.67445601851851855</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>202</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0.6746064814814815</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>201</v>
+      </c>
+      <c r="B306" t="s">
+        <v>19</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0.67475694444444445</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>200</v>
+      </c>
+      <c r="B307" t="s">
+        <v>19</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0.6749074074074074</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>199</v>
+      </c>
+      <c r="B308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0.67505787037037035</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>198</v>
+      </c>
+      <c r="B309" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0.6752083333333333</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>139</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0.67535879629629625</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>138</v>
+      </c>
+      <c r="B311" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="1">
+        <v>0.67550925925925931</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>134</v>
+      </c>
+      <c r="B312" t="s">
+        <v>19</v>
+      </c>
+      <c r="C312" s="1">
+        <v>0.67565972222222215</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>132</v>
+      </c>
+      <c r="B313" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="1">
+        <v>0.67581018518518521</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>131</v>
+      </c>
+      <c r="B314" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314" s="1">
+        <v>0.67596064814814805</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>129</v>
+      </c>
+      <c r="B315" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" s="1">
+        <v>0.67611111111111111</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>127</v>
+      </c>
+      <c r="B316" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0.67626157407407417</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>125</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" s="1">
+        <v>0.67641203703703701</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>119</v>
+      </c>
+      <c r="B318" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0.67656250000000007</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>121</v>
+      </c>
+      <c r="B319" t="s">
+        <v>19</v>
+      </c>
+      <c r="C319" s="1">
+        <v>0.67671296296296291</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>122</v>
+      </c>
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0.67686342592592597</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>117</v>
+      </c>
+      <c r="B321" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="1">
+        <v>0.67701388888888892</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>115</v>
+      </c>
+      <c r="B322" t="s">
+        <v>19</v>
+      </c>
+      <c r="C322" s="1">
+        <v>0.67716435185185186</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>218</v>
+      </c>
+      <c r="B323" t="s">
+        <v>36</v>
+      </c>
+      <c r="C323" s="1">
+        <v>0.67741898148148139</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>219</v>
+      </c>
+      <c r="B324" t="s">
+        <v>36</v>
+      </c>
+      <c r="C324" s="1">
+        <v>0.67748842592592595</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>220</v>
+      </c>
+      <c r="B325" t="s">
+        <v>36</v>
+      </c>
+      <c r="C325" s="1">
+        <v>0.6775578703703703</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>221</v>
+      </c>
+      <c r="B326" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0.67762731481481486</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>222</v>
+      </c>
+      <c r="B327" t="s">
+        <v>36</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0.67769675925925921</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>223</v>
+      </c>
+      <c r="B328" t="s">
+        <v>36</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0.6777777777777777</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>224</v>
+      </c>
+      <c r="B329" t="s">
+        <v>36</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0.67784722222222227</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>225</v>
+      </c>
+      <c r="B330" t="s">
+        <v>36</v>
+      </c>
+      <c r="C330" s="1">
+        <v>0.67791666666666661</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>226</v>
+      </c>
+      <c r="B331" t="s">
+        <v>36</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0.67798611111111118</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>227</v>
+      </c>
+      <c r="B332" t="s">
+        <v>36</v>
+      </c>
+      <c r="C332" s="1">
+        <v>0.67805555555555552</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>228</v>
+      </c>
+      <c r="B333" t="s">
+        <v>36</v>
+      </c>
+      <c r="C333" s="1">
+        <v>0.67813657407407402</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>229</v>
+      </c>
+      <c r="B334" t="s">
+        <v>36</v>
+      </c>
+      <c r="C334" s="1">
+        <v>0.67820601851851858</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>230</v>
+      </c>
+      <c r="B335" t="s">
+        <v>36</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0.67827546296296293</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>231</v>
+      </c>
+      <c r="B336" t="s">
+        <v>36</v>
+      </c>
+      <c r="C336" s="1">
+        <v>0.67834490740740738</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>232</v>
+      </c>
+      <c r="B337" t="s">
+        <v>36</v>
+      </c>
+      <c r="C337" s="1">
+        <v>0.67841435185185184</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>233</v>
+      </c>
+      <c r="B338" t="s">
+        <v>36</v>
+      </c>
+      <c r="C338" s="1">
+        <v>0.67849537037037033</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>234</v>
+      </c>
+      <c r="B339" t="s">
+        <v>36</v>
+      </c>
+      <c r="C339" s="1">
+        <v>0.67856481481481479</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>129</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1">
+        <v>0.67927083333333327</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>231</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1">
+        <v>0.67936342592592591</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>229</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="1">
+        <v>0.67944444444444441</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>220</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1">
+        <v>0.67952546296296301</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>218</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="1">
+        <v>0.67960648148148151</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>235</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1">
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>224</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1">
+        <v>0.67978009259259264</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>231</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1">
+        <v>0.6799884259259259</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>127</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1">
+        <v>0.68011574074074066</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>127</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1">
+        <v>0.68024305555555553</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>119</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1">
+        <v>0.6803703703703704</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>119</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1">
+        <v>0.6804513888888889</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>228</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="1">
+        <v>0.68138888888888882</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>231</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="1">
+        <v>0.6815162037037038</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>230</v>
+      </c>
+      <c r="B354" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="1">
+        <v>0.68163194444444442</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>236</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" s="1">
+        <v>0.68174768518518514</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>235</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" s="1">
+        <v>0.68185185185185182</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>229</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" s="1">
+        <v>0.68199074074074073</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>227</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" s="1">
+        <v>0.68210648148148145</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>226</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" s="1">
+        <v>0.68222222222222229</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>224</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0.68233796296296301</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>223</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="1">
+        <v>0.68244212962962969</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>221</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" s="1">
+        <v>0.68256944444444445</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>220</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0.68268518518518517</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>219</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0.68278935185185186</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>218</v>
+      </c>
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0.68291666666666673</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>131</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" s="1">
+        <v>0.6830208333333333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>129</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0.68314814814814817</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>127</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" s="1">
+        <v>0.68326388888888889</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>125</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="1">
+        <v>0.68336805555555558</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>119</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0.6834837962962963</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>121</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="1">
+        <v>0.68359953703703702</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>122</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="1">
+        <v>0.68371527777777785</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>117</v>
+      </c>
+      <c r="B373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0.68383101851851846</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>115</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0.68393518518518526</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>231</v>
+      </c>
+      <c r="B375" t="s">
+        <v>19</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0.68462962962962959</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>230</v>
+      </c>
+      <c r="B376" t="s">
+        <v>19</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0.68478009259259265</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>235</v>
+      </c>
+      <c r="B377" t="s">
+        <v>19</v>
+      </c>
+      <c r="C377" s="1">
+        <v>0.68493055555555549</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>229</v>
+      </c>
+      <c r="B378" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378" s="1">
+        <v>0.6850694444444444</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>227</v>
+      </c>
+      <c r="B379" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" s="1">
+        <v>0.68521990740740746</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>226</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" s="1">
+        <v>0.6853703703703703</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>224</v>
+      </c>
+      <c r="B381" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" s="1">
+        <v>0.68552083333333336</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>223</v>
+      </c>
+      <c r="B382" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382" s="1">
+        <v>0.6856712962962962</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>221</v>
+      </c>
+      <c r="B383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383" s="1">
+        <v>0.68581018518518511</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>220</v>
+      </c>
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" s="1">
+        <v>0.68596064814814817</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>219</v>
+      </c>
+      <c r="B385" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="1">
+        <v>0.68611111111111101</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>218</v>
+      </c>
+      <c r="B386" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386" s="1">
+        <v>0.68626157407407407</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>131</v>
+      </c>
+      <c r="B387" t="s">
+        <v>19</v>
+      </c>
+      <c r="C387" s="1">
+        <v>0.68641203703703713</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>129</v>
+      </c>
+      <c r="B388" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388" s="1">
+        <v>0.68656249999999996</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>127</v>
+      </c>
+      <c r="B389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" s="1">
+        <v>0.68671296296296302</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>125</v>
+      </c>
+      <c r="B390" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" s="1">
+        <v>0.68686342592592586</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>119</v>
+      </c>
+      <c r="B391" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391" s="1">
+        <v>0.68700231481481477</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>121</v>
+      </c>
+      <c r="B392" t="s">
+        <v>19</v>
+      </c>
+      <c r="C392" s="1">
+        <v>0.68715277777777783</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>122</v>
+      </c>
+      <c r="B393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" s="1">
+        <v>0.68730324074074067</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>117</v>
+      </c>
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394" s="1">
+        <v>0.68745370370370373</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>115</v>
+      </c>
+      <c r="B395" t="s">
+        <v>19</v>
+      </c>
+      <c r="C395" s="1">
+        <v>0.68760416666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B791666-5F85-4408-894A-6D456D59B5B4}">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4287,7 +8896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BD2016-B347-452D-946F-A29FD8549AC3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simao\OneDrive\Documentos\PROJETOS\RPA\Gustavo MSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{E4DEA858-69A5-4BD2-84F7-78689CEF98CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF963B37-A042-4F80-97A1-381792616742}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906885CA-D6B0-4C46-85E0-1A56D1D0DF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F12A5210-E3A8-4A72-84D1-E0ABC4AE18A4}"/>
+    <workbookView xWindow="3840" yWindow="870" windowWidth="18000" windowHeight="9360" xr2:uid="{F12A5210-E3A8-4A72-84D1-E0ABC4AE18A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="3" sheetId="3" r:id="rId1"/>
-    <sheet name="31" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="11" sheetId="5" r:id="rId1"/>
+    <sheet name="10" sheetId="4" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="31" sheetId="2" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="333">
   <si>
     <t>perfil</t>
   </si>
@@ -750,6 +752,294 @@
   </si>
   <si>
     <t>ludfago</t>
+  </si>
+  <si>
+    <t>mrg__31</t>
+  </si>
+  <si>
+    <t>yumoraes</t>
+  </si>
+  <si>
+    <t>m_travassos7</t>
+  </si>
+  <si>
+    <t>calixtogustavohenrique</t>
+  </si>
+  <si>
+    <t>vitao_cdc</t>
+  </si>
+  <si>
+    <t>o_.vinicius</t>
+  </si>
+  <si>
+    <t>taigaumm</t>
+  </si>
+  <si>
+    <t>enrico2116</t>
+  </si>
+  <si>
+    <t>biel_yuami</t>
+  </si>
+  <si>
+    <t>dixx_serejinha</t>
+  </si>
+  <si>
+    <t>eduardo.dca</t>
+  </si>
+  <si>
+    <t>viniciusinaciobjj</t>
+  </si>
+  <si>
+    <t>neguinhobarberoficial</t>
+  </si>
+  <si>
+    <t>richard_silva20</t>
+  </si>
+  <si>
+    <t>kaaneekiiii</t>
+  </si>
+  <si>
+    <t>antonioglehnbr</t>
+  </si>
+  <si>
+    <t>pedro_gbrl.07</t>
+  </si>
+  <si>
+    <t>vitor_borssuk</t>
+  </si>
+  <si>
+    <t>luan_alves46</t>
+  </si>
+  <si>
+    <t>adilsom_3212</t>
+  </si>
+  <si>
+    <t>hilenargente</t>
+  </si>
+  <si>
+    <t>jadsonluiz_</t>
+  </si>
+  <si>
+    <t>janielson_r</t>
+  </si>
+  <si>
+    <t>canto_retro</t>
+  </si>
+  <si>
+    <t>jaquebrandaos</t>
+  </si>
+  <si>
+    <t>bernardomhuber</t>
+  </si>
+  <si>
+    <t>jonilimaa</t>
+  </si>
+  <si>
+    <t>mumulukinhas</t>
+  </si>
+  <si>
+    <t>lilmahcio</t>
+  </si>
+  <si>
+    <t>polastro_</t>
+  </si>
+  <si>
+    <t>antoniocesar79</t>
+  </si>
+  <si>
+    <t>davi_silvecorrea</t>
+  </si>
+  <si>
+    <t>nevesserick</t>
+  </si>
+  <si>
+    <t>_nathbarreto</t>
+  </si>
+  <si>
+    <t>luizoctaviomp08</t>
+  </si>
+  <si>
+    <t>pedro_delconti</t>
+  </si>
+  <si>
+    <t>fe.lip._</t>
+  </si>
+  <si>
+    <t>lborba1</t>
+  </si>
+  <si>
+    <t>daahze</t>
+  </si>
+  <si>
+    <t>ccol.eman</t>
+  </si>
+  <si>
+    <t>hamdanthiago</t>
+  </si>
+  <si>
+    <t>camargo_anacarol</t>
+  </si>
+  <si>
+    <t>nalu_matos</t>
+  </si>
+  <si>
+    <t>luccascavalcante7</t>
+  </si>
+  <si>
+    <t>douglasjuliace2</t>
+  </si>
+  <si>
+    <t>gabrielxv</t>
+  </si>
+  <si>
+    <t>alailsonroberto</t>
+  </si>
+  <si>
+    <t>fernando_rotert</t>
+  </si>
+  <si>
+    <t>marceloandreotti_</t>
+  </si>
+  <si>
+    <t>schettinorafael</t>
+  </si>
+  <si>
+    <t>italo_vasc</t>
+  </si>
+  <si>
+    <t>gustavoamaral27</t>
+  </si>
+  <si>
+    <t>patrickgarcia_93</t>
+  </si>
+  <si>
+    <t>laispavese</t>
+  </si>
+  <si>
+    <t>filipe.casquet</t>
+  </si>
+  <si>
+    <t>anakarolaynee</t>
+  </si>
+  <si>
+    <t>proflucasalmeidaoficial</t>
+  </si>
+  <si>
+    <t>valverde_gvs</t>
+  </si>
+  <si>
+    <t>luizahs</t>
+  </si>
+  <si>
+    <t>flavioribeirohairexpert</t>
+  </si>
+  <si>
+    <t>icaroacardoso</t>
+  </si>
+  <si>
+    <t>itsrealwes</t>
+  </si>
+  <si>
+    <t>alsamyrjende</t>
+  </si>
+  <si>
+    <t>biupsejamais</t>
+  </si>
+  <si>
+    <t>by.emersonmoreira</t>
+  </si>
+  <si>
+    <t>alef_lefinho1</t>
+  </si>
+  <si>
+    <t>xrl8ligeiro</t>
+  </si>
+  <si>
+    <t>f.e.l.p.s_</t>
+  </si>
+  <si>
+    <t>youtubeborel</t>
+  </si>
+  <si>
+    <t>danielorige</t>
+  </si>
+  <si>
+    <t>estevaocf</t>
+  </si>
+  <si>
+    <t>gustavosarilho</t>
+  </si>
+  <si>
+    <t>damasiofrank</t>
+  </si>
+  <si>
+    <t>julio.jacomo</t>
+  </si>
+  <si>
+    <t>juteixoni</t>
+  </si>
+  <si>
+    <t>julio_profit</t>
+  </si>
+  <si>
+    <t>dyegotecti</t>
+  </si>
+  <si>
+    <t>igaoun01</t>
+  </si>
+  <si>
+    <t>samuel_r1438</t>
+  </si>
+  <si>
+    <t>bigfatpaz</t>
+  </si>
+  <si>
+    <t>pedro_bexiga</t>
+  </si>
+  <si>
+    <t>theone_aboveall8</t>
+  </si>
+  <si>
+    <t>mituzao</t>
+  </si>
+  <si>
+    <t>lucas.mascarenhass</t>
+  </si>
+  <si>
+    <t>dinispar</t>
+  </si>
+  <si>
+    <t>wermuthgabriel</t>
+  </si>
+  <si>
+    <t>fael05127</t>
+  </si>
+  <si>
+    <t>fp_do_corte</t>
+  </si>
+  <si>
+    <t>memesuncao</t>
+  </si>
+  <si>
+    <t>joaovitosr</t>
+  </si>
+  <si>
+    <t>daiane_amandamkt</t>
+  </si>
+  <si>
+    <t>carolq.n</t>
+  </si>
+  <si>
+    <t>ridineysilva</t>
+  </si>
+  <si>
+    <t>_missio__jonh</t>
+  </si>
+  <si>
+    <t>wellingtongigo</t>
+  </si>
+  <si>
+    <t>indianaradoliveira</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1392,2819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB14CA38-281C-48FF-8087-07BB66A5C6C7}">
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.41023148148148153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.41085648148148146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4115625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41171296296296295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.41185185185185186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41204861111111107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.41229166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4135416666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.41377314814814814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.41502314814814811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.41526620370370365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4165625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4168055555555556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.41739583333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.41809027777777774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.41824074074074075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.4183912037037037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.41885416666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.41908564814814814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.38799768518518518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.38809027777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.38819444444444445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.38827546296296295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.3883564814814815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.38895833333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.38907407407407407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.38917824074074076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.38928240740740744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.38938657407407407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.38950231481481484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.38961805555555556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.38972222222222225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.38984953703703701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.38996527777777779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.39013888888888887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.39024305555555555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.39035879629629627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.39053240740740741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.39064814814814813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.39082175925925927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.3909259259259259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.39104166666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.3911574074074074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.39186342592592593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.39201388888888888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.39215277777777779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.39230324074074074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.39245370370370369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.39260416666666664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.39275462962962965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.3929050925925926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.3932060185185185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.39334490740740741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.39349537037037036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.39364583333333331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.39380787037037041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.39395833333333335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.3941087962962963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.39425925925925925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.3944097222222222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.39456018518518521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.39471064814814816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.39486111111111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.39501157407407406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.39516203703703701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.37892361111111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.37907407407407406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.37921296296296297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.37937500000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.37952546296296297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.37967592592592592</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.37982638888888887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.37997685185185182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.38012731481481482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.38026620370370368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.38041666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A7A7EC-8E86-4C8A-9B0D-89257AFC747C}">
+  <dimension ref="A1:C175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.66975694444444445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.6700462962962962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.71414351851851843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7144907407407407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.71520833333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.71604166666666658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.71619212962962964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7163425925925927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.75958333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.75983796296296291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.80394675925925929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.80420138888888892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.84844907407407411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.61820601851851853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.33944444444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.33951388888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.33958333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.34049768518518514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.34059027777777778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.34067129629629633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.34075231481481483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.34083333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.34092592592592591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.3410069444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.34108796296296301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.34120370370370368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.34131944444444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.34144675925925921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.34156249999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.34229166666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.34239583333333329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.34260416666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.34271990740740743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.34282407407407406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.3429976851851852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.34310185185185182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.34320601851851856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.34332175925925923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.34348379629629627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.34359953703703705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.34370370370370368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.34387731481481482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.3439814814814815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.34409722222222222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.34421296296296294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.34431712962962963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.34443287037037035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.34453703703703703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.34465277777777775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.34476851851851853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.34488425925925931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.34498842592592593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.34509259259259256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.34520833333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.34592592592592591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.34607638888888892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.34622685185185187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.34637731481481482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.34652777777777777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.34667824074074072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.34682870370370367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.34697916666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.34712962962962962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.34728009259259257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.34743055555555552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.34758101851851847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.34773148148148153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.34788194444444448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.34803240740740743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.34817129629629634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.34832175925925929</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.34847222222222224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.34862268518518519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.34877314814814814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.34892361111111114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.34907407407407409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.34922453703703704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.34937499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.34952546296296294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.34967592592592595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.3498263888888889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.34997685185185184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.35012731481481479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.35027777777777774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.35042824074074069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.3505671296296296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.37987268518518519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.37994212962962964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.3800115740740741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.38008101851851855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.38015046296296301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.3802314814814815</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.38030092592592596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.38037037037037041</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.38043981481481487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.38050925925925921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.38059027777777782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.38065972222222227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.38072916666666662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.38079861111111107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>290</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.38086805555555553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.38094907407407402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.38101851851851848</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.38174768518518515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.38182870370370375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.38190972222222225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.38199074074074074</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.38207175925925929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.38215277777777779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.38224537037037037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.3823611111111111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.38247685185185182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.3825925925925926</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.38270833333333337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.38282407407407404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.38383101851851853</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>293</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.38394675925925931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.38406249999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.38416666666666671</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.38428240740740738</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.38439814814814816</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.38451388888888888</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.38461805555555556</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.38479166666666664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.38489583333333338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.38501157407407405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.38511574074074079</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.38521990740740741</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.38532407407407404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.38549768518518518</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.38560185185185186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.38570601851851855</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>237</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.38581018518518517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.38597222222222222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.3860763888888889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.38619212962962962</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.38636574074074076</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.38646990740740739</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>257</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.38658564814814816</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>249</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.38670138888888889</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.38680555555555557</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.3875231481481482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.38767361111111115</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>248</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.3878240740740741</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.38797453703703705</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.388125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>249</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.38827546296296295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>258</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.38842592592592595</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.3885763888888889</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.38872685185185185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.3888773148148148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>261</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.38902777777777775</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>262</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.38917824074074076</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.3893287037037037</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>193</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.38947916666666665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>192</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.3896296296296296</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.38978009259259255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.3899305555555555</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.39008101851851856</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.39023148148148151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>251</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.39038194444444446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>270</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.39053240740740741</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>271</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.39068287037037036</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.39083333333333337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.39098379629629632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>273</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.39113425925925926</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0.39128472222222221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>275</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0.39143518518518516</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0.39157407407407407</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>121</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0.39172453703703702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0.39187499999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0.39202546296296298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>115</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0.39217592592592593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BF5953-A94F-4998-AE57-561D65206468}">
   <dimension ref="A1:C395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5466,7 +8565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B791666-5F85-4408-894A-6D456D59B5B4}">
   <dimension ref="A1:C310"/>
   <sheetViews>
@@ -8896,7 +11995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BD2016-B347-452D-946F-A29FD8549AC3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/500ae9e30167d4d4/Documentos/PROJETOS/RPA/Gustavo MSG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simao\OneDrive\Documentos\PROJETOS\RPA\Gustavo MSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{906885CA-D6B0-4C46-85E0-1A56D1D0DF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{317D7578-33AE-4341-9452-3FDD617EB324}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E18F1C-93FA-4348-80E5-0D5D27E60EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="870" windowWidth="18000" windowHeight="9360" xr2:uid="{F12A5210-E3A8-4A72-84D1-E0ABC4AE18A4}"/>
+    <workbookView xWindow="3840" yWindow="870" windowWidth="18000" windowHeight="9360" xr2:uid="{B4CF1A18-F82F-4BC7-993A-316E5BB7B5CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="12" sheetId="3" r:id="rId1"/>
-    <sheet name="11" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="21" sheetId="4" r:id="rId1"/>
+    <sheet name="19" sheetId="3" r:id="rId2"/>
+    <sheet name="18" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="152">
   <si>
     <t>perfil</t>
   </si>
@@ -47,154 +48,451 @@
     <t>hora</t>
   </si>
   <si>
-    <t>mrs._choko</t>
+    <t>igor.gs</t>
   </si>
   <si>
     <t>Seguido</t>
   </si>
   <si>
-    <t>_leaodg</t>
+    <t>otaviodomingossanchesda</t>
+  </si>
+  <si>
+    <t>andreemidio1</t>
+  </si>
+  <si>
+    <t>portuga_44</t>
+  </si>
+  <si>
+    <t>vt_lluiz</t>
+  </si>
+  <si>
+    <t>surto011</t>
+  </si>
+  <si>
+    <t>kaike_wreis</t>
+  </si>
+  <si>
+    <t>gabriel_guayanaz</t>
+  </si>
+  <si>
+    <t>the_lukeej</t>
   </si>
   <si>
     <t>Visualizacao de Stores</t>
   </si>
   <si>
-    <t>allanwilliam7</t>
-  </si>
-  <si>
-    <t>carliniairton</t>
-  </si>
-  <si>
-    <t>luisdiasmathias</t>
-  </si>
-  <si>
-    <t>luanna_alves_costa</t>
-  </si>
-  <si>
-    <t>marinaguimaraesp</t>
-  </si>
-  <si>
-    <t>gulinmariana</t>
-  </si>
-  <si>
-    <t>alan_personal_cps</t>
-  </si>
-  <si>
-    <t>cibelevierorech</t>
-  </si>
-  <si>
-    <t>renanvanazzi</t>
-  </si>
-  <si>
-    <t>ganevpelomundo</t>
-  </si>
-  <si>
-    <t>joice_monteiro3</t>
-  </si>
-  <si>
-    <t>luciahelenacelestino</t>
-  </si>
-  <si>
-    <t>anapaula.alves.967422</t>
-  </si>
-  <si>
     <t>Comentario</t>
   </si>
   <si>
+    <t>diamond.automoveis</t>
+  </si>
+  <si>
+    <t>khakhi_s</t>
+  </si>
+  <si>
+    <t>denisepachecodeabreu</t>
+  </si>
+  <si>
+    <t>tatraderinvest</t>
+  </si>
+  <si>
+    <t>elietevitoriobmd</t>
+  </si>
+  <si>
+    <t>lwemersondasilva</t>
+  </si>
+  <si>
+    <t>lili_pgb</t>
+  </si>
+  <si>
+    <t>sandrarlsmorais</t>
+  </si>
+  <si>
+    <t>irislonio</t>
+  </si>
+  <si>
     <t>Deixar de Seguir</t>
   </si>
   <si>
-    <t>naslasousa</t>
-  </si>
-  <si>
-    <t>monicabonicontro</t>
-  </si>
-  <si>
-    <t>everin.oficial</t>
-  </si>
-  <si>
-    <t>kaduefonseca</t>
-  </si>
-  <si>
-    <t>edgar._.monteiro</t>
-  </si>
-  <si>
-    <t>igorgerboni</t>
-  </si>
-  <si>
-    <t>jason_jhonny_</t>
-  </si>
-  <si>
-    <t>santos_lucca23</t>
-  </si>
-  <si>
-    <t>augribeiro19</t>
-  </si>
-  <si>
-    <t>rafa.s.alvador</t>
-  </si>
-  <si>
-    <t>bruno_sima</t>
-  </si>
-  <si>
-    <t>marcelollopes19</t>
-  </si>
-  <si>
-    <t>brunoaschacon</t>
-  </si>
-  <si>
-    <t>caduperol</t>
-  </si>
-  <si>
-    <t>brrrsilva</t>
-  </si>
-  <si>
-    <t>mariagabriela.gomes</t>
-  </si>
-  <si>
-    <t>torresmeex</t>
-  </si>
-  <si>
-    <t>jehreale</t>
-  </si>
-  <si>
-    <t>edu_teruo</t>
-  </si>
-  <si>
-    <t>leonardospcosta</t>
-  </si>
-  <si>
-    <t>junioor_soares1</t>
-  </si>
-  <si>
-    <t>tuliofernando_</t>
-  </si>
-  <si>
-    <t>sandrarlsmorais</t>
-  </si>
-  <si>
-    <t>lili_pgb</t>
-  </si>
-  <si>
-    <t>lwemersondasilva</t>
-  </si>
-  <si>
-    <t>elietevitoriobmd</t>
-  </si>
-  <si>
-    <t>tatraderinvest</t>
-  </si>
-  <si>
-    <t>rrs.construtora</t>
-  </si>
-  <si>
-    <t>botelho_renan_</t>
-  </si>
-  <si>
-    <t>anbrozinho</t>
-  </si>
-  <si>
-    <t>mikaael_10</t>
+    <t>eduardo.oferreira</t>
+  </si>
+  <si>
+    <t>mutarebios</t>
+  </si>
+  <si>
+    <t>alextorres.financas</t>
+  </si>
+  <si>
+    <t>proflucasalmeidaoficial</t>
+  </si>
+  <si>
+    <t>margottome</t>
+  </si>
+  <si>
+    <t>thullioiago</t>
+  </si>
+  <si>
+    <t>brunodantas.com.br</t>
+  </si>
+  <si>
+    <t>elidiojrgo</t>
+  </si>
+  <si>
+    <t>marken.ls</t>
+  </si>
+  <si>
+    <t>professormaurosousa179</t>
+  </si>
+  <si>
+    <t>endrigopablo</t>
+  </si>
+  <si>
+    <t>lanyrodrigues_</t>
+  </si>
+  <si>
+    <t>sandra_delcampo</t>
+  </si>
+  <si>
+    <t>arigoeslima</t>
+  </si>
+  <si>
+    <t>thaisafonso.17</t>
+  </si>
+  <si>
+    <t>cristinabach</t>
+  </si>
+  <si>
+    <t>marcusdavilapires</t>
+  </si>
+  <si>
+    <t>marciojr.r</t>
+  </si>
+  <si>
+    <t>fortes8549</t>
+  </si>
+  <si>
+    <t>paulavieirasb</t>
+  </si>
+  <si>
+    <t>renataoliveiraa2</t>
+  </si>
+  <si>
+    <t>oliveiralimaengenharia</t>
+  </si>
+  <si>
+    <t>lucaslim142</t>
+  </si>
+  <si>
+    <t>drei_kym</t>
+  </si>
+  <si>
+    <t>pnkaudioconcept</t>
+  </si>
+  <si>
+    <t>paulonpriv</t>
+  </si>
+  <si>
+    <t>prod.munhoz</t>
+  </si>
+  <si>
+    <t>jao.fonseca</t>
+  </si>
+  <si>
+    <t>merlean_gmb_tzc</t>
+  </si>
+  <si>
+    <t>danipascc</t>
+  </si>
+  <si>
+    <t>ei_huguinho</t>
+  </si>
+  <si>
+    <t>__mulleer__</t>
+  </si>
+  <si>
+    <t>gui_alavarce65</t>
+  </si>
+  <si>
+    <t>diego.ashford</t>
+  </si>
+  <si>
+    <t>paulopereira7</t>
+  </si>
+  <si>
+    <t>guilhermekmiec</t>
+  </si>
+  <si>
+    <t>mariageorodrigues</t>
+  </si>
+  <si>
+    <t>messiascarla1006</t>
+  </si>
+  <si>
+    <t>atacadao_pvc</t>
+  </si>
+  <si>
+    <t>gislaine_reis_stella</t>
+  </si>
+  <si>
+    <t>lucasdierings.agro</t>
+  </si>
+  <si>
+    <t>selvacorporativa</t>
+  </si>
+  <si>
+    <t>nathaliaalvespinheiro</t>
+  </si>
+  <si>
+    <t>ronaldonakashoji</t>
+  </si>
+  <si>
+    <t>gabrielfriedrichsen</t>
+  </si>
+  <si>
+    <t>bruno.nicoleti</t>
+  </si>
+  <si>
+    <t>veg4s.ff</t>
+  </si>
+  <si>
+    <t>gust4v0nth3l1n3</t>
+  </si>
+  <si>
+    <t>daviaguillar778</t>
+  </si>
+  <si>
+    <t>bevolkmann</t>
+  </si>
+  <si>
+    <t>carlospires05</t>
+  </si>
+  <si>
+    <t>eder_sonf</t>
+  </si>
+  <si>
+    <t>matheu_s_gabriel</t>
+  </si>
+  <si>
+    <t>_.opitz._</t>
+  </si>
+  <si>
+    <t>rukosu.jpg</t>
+  </si>
+  <si>
+    <t>brunoodom</t>
+  </si>
+  <si>
+    <t>f3lipp3.m</t>
+  </si>
+  <si>
+    <t>lazarobruno_</t>
+  </si>
+  <si>
+    <t>oojoaopedro</t>
+  </si>
+  <si>
+    <t>larissonbrenner</t>
+  </si>
+  <si>
+    <t>vinicius.m.rezende</t>
+  </si>
+  <si>
+    <t>carla_brandao_schork</t>
+  </si>
+  <si>
+    <t>nelsonnetto77</t>
+  </si>
+  <si>
+    <t>contando_facil</t>
+  </si>
+  <si>
+    <t>rodrii_</t>
+  </si>
+  <si>
+    <t>olebrinha</t>
+  </si>
+  <si>
+    <t>bruhh_santooss</t>
+  </si>
+  <si>
+    <t>abner.porto</t>
+  </si>
+  <si>
+    <t>gabrieloliveira_a</t>
+  </si>
+  <si>
+    <t>jacke_aandrade</t>
+  </si>
+  <si>
+    <t>xayslan</t>
+  </si>
+  <si>
+    <t>shit_whaat</t>
+  </si>
+  <si>
+    <t>nawtelles</t>
+  </si>
+  <si>
+    <t>maybeluiz</t>
+  </si>
+  <si>
+    <t>mateusbrazaga</t>
+  </si>
+  <si>
+    <t>rodrigo.raw</t>
+  </si>
+  <si>
+    <t>o_tal_do_polegatto</t>
+  </si>
+  <si>
+    <t>mozer_thiago</t>
+  </si>
+  <si>
+    <t>jeziel_medeiros</t>
+  </si>
+  <si>
+    <t>tharcianekarlla</t>
+  </si>
+  <si>
+    <t>rafael_alexandrest</t>
+  </si>
+  <si>
+    <t>vanuzamararamos</t>
+  </si>
+  <si>
+    <t>marcoston.businesscoach</t>
+  </si>
+  <si>
+    <t>bruninhoarrais88</t>
+  </si>
+  <si>
+    <t>claudiaescobar03</t>
+  </si>
+  <si>
+    <t>eu_tiagoferreira</t>
+  </si>
+  <si>
+    <t>jeancampos.romeu</t>
+  </si>
+  <si>
+    <t>gabriell.hermenegildo</t>
+  </si>
+  <si>
+    <t>yassersous</t>
+  </si>
+  <si>
+    <t>carlosjuniorjm</t>
+  </si>
+  <si>
+    <t>lucianaoctaviano</t>
+  </si>
+  <si>
+    <t>renatoratke</t>
+  </si>
+  <si>
+    <t>marcoastorga1</t>
+  </si>
+  <si>
+    <t>marceloandreotti_</t>
+  </si>
+  <si>
+    <t>karolina.fontes</t>
+  </si>
+  <si>
+    <t>junior_jad</t>
+  </si>
+  <si>
+    <t>lucas_sakamoto</t>
+  </si>
+  <si>
+    <t>sabryna.albuquerque</t>
+  </si>
+  <si>
+    <t>kelly_souza28</t>
+  </si>
+  <si>
+    <t>rodrigo.rdasilva</t>
+  </si>
+  <si>
+    <t>fabiodonone</t>
+  </si>
+  <si>
+    <t>juninho_araujjoo</t>
+  </si>
+  <si>
+    <t>barbcah</t>
+  </si>
+  <si>
+    <t>barbara_zamarki</t>
+  </si>
+  <si>
+    <t>silvams_13</t>
+  </si>
+  <si>
+    <t>h_b_2_confeccoes</t>
+  </si>
+  <si>
+    <t>tacianaramos</t>
+  </si>
+  <si>
+    <t>eloilmabrotas</t>
+  </si>
+  <si>
+    <t>denizeberri</t>
+  </si>
+  <si>
+    <t>bruno.v21</t>
+  </si>
+  <si>
+    <t>tamisa.fleury</t>
+  </si>
+  <si>
+    <t>arts7mimos</t>
+  </si>
+  <si>
+    <t>somarjann</t>
+  </si>
+  <si>
+    <t>alineloubetsilva</t>
+  </si>
+  <si>
+    <t>fran_andrade4545</t>
+  </si>
+  <si>
+    <t>pachecoostjen</t>
+  </si>
+  <si>
+    <t>rodrigo_monteiiro</t>
+  </si>
+  <si>
+    <t>regina_lopes1711</t>
+  </si>
+  <si>
+    <t>patriciamoniq</t>
+  </si>
+  <si>
+    <t>alana.f.s</t>
+  </si>
+  <si>
+    <t>savioalenc_</t>
+  </si>
+  <si>
+    <t>_adriancorreia</t>
+  </si>
+  <si>
+    <t>conceicaosantosfurtado</t>
+  </si>
+  <si>
+    <t>tatianesobrinhoof</t>
+  </si>
+  <si>
+    <t>antonioedison17</t>
+  </si>
+  <si>
+    <t>jonasg.mateus</t>
+  </si>
+  <si>
+    <t>bethmoreira_sl</t>
   </si>
 </sst>
 </file>
@@ -546,8 +844,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44275A53-B8CC-475B-913F-A2E3D9E515C2}">
-  <dimension ref="A1:C78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF587E56-CD5E-49AC-B379-F1662288F819}">
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,849 +864,1201 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>0.78263888888888899</v>
+        <v>0.86921296296296291</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.78270833333333334</v>
+        <v>0.86928240740740748</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.78277777777777768</v>
+        <v>0.86935185185185182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.78284722222222225</v>
+        <v>0.86942129629629628</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.78291666666666659</v>
+        <v>0.86949074074074073</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.78324074074074079</v>
+        <v>0.86956018518518519</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.78325231481481483</v>
+        <v>0.86962962962962964</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>0.78333333333333333</v>
+        <v>0.8696990740740741</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.78341435185185182</v>
+        <v>0.86976851851851855</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.78349537037037031</v>
+        <v>0.86983796296296301</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>0.78409722222222233</v>
+        <v>0.86990740740740735</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>0.78452546296296299</v>
+        <v>0.87202546296296291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>0.78491898148148154</v>
+        <v>0.87216435185185182</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>0.78532407407407412</v>
+        <v>0.87231481481481488</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
-        <v>0.7857291666666667</v>
+        <v>0.87246527777777771</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>0.78672453703703704</v>
+        <v>0.87261574074074078</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>0.7868750000000001</v>
+        <v>0.87275462962962969</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>0.78701388888888879</v>
+        <v>0.87290509259259252</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>0.78716435185185185</v>
+        <v>0.87305555555555558</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>0.78731481481481491</v>
+        <v>0.8731944444444445</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
-        <v>0.7874537037037036</v>
+        <v>0.87334490740740733</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>0.78760416666666666</v>
+        <v>0.87349537037037039</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>0.6809722222222222</v>
+        <v>0.8736342592592593</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>0.68104166666666666</v>
+        <v>0.87378472222222225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>0.68111111111111111</v>
+        <v>0.8739351851851852</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>0.68141203703703701</v>
+        <v>0.87412037037037038</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>0.6814930555555555</v>
+        <v>0.87418981481481473</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>0.681574074074074</v>
+        <v>0.87425925925925929</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>0.68165509259259249</v>
+        <v>0.87432870370370364</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>0.68224537037037036</v>
+        <v>0.8743981481481482</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>0.68263888888888891</v>
+        <v>0.87446759259259255</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>0.68305555555555564</v>
+        <v>0.87452546296296296</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>0.68346064814814822</v>
+        <v>0.87459490740740742</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>0.68386574074074069</v>
+        <v>0.87466435185185187</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>0.68483796296296295</v>
+        <v>0.87473379629629633</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>0.6849884259259259</v>
+        <v>0.87480324074074067</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1">
-        <v>0.68513888888888896</v>
+        <v>0.87677083333333339</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>0.6852893518518518</v>
+        <v>0.87692129629629623</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
-        <v>0.68542824074074071</v>
+        <v>0.87707175925925929</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>0.68557870370370377</v>
+        <v>0.8772106481481482</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1">
-        <v>0.68572916666666661</v>
+        <v>0.87736111111111115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
-        <v>0.68592592592592594</v>
+        <v>0.8775115740740741</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>0.68599537037037039</v>
+        <v>0.87766203703703705</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>0.68606481481481485</v>
+        <v>0.87780092592592596</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>0.6861342592592593</v>
+        <v>0.87795138888888891</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>0.68620370370370365</v>
+        <v>0.87813657407407408</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>0.68644675925925924</v>
+        <v>0.87820601851851843</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>0.68652777777777774</v>
+        <v>0.87827546296296299</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>0.68660879629629623</v>
+        <v>0.87834490740740734</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>0.68668981481481473</v>
+        <v>0.8784143518518519</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>0.68677083333333344</v>
+        <v>0.87848379629629625</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>0.68800925925925915</v>
+        <v>0.87854166666666667</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>0.68806712962962957</v>
+        <v>0.87861111111111112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>0.68813657407407414</v>
+        <v>0.87868055555555558</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>0.68820601851851848</v>
+        <v>0.87875000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0.68827546296296294</v>
+        <v>0.87881944444444438</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>0.68853009259259268</v>
+        <v>0.88081018518518517</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>0.68861111111111117</v>
+        <v>0.88096064814814812</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1">
-        <v>0.68869212962962967</v>
+        <v>0.88111111111111118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C61" s="1">
-        <v>0.68877314814814816</v>
+        <v>0.88124999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1">
-        <v>0.68885416666666666</v>
+        <v>0.88140046296296293</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1">
-        <v>0.68946759259259249</v>
+        <v>0.88155092592592599</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1">
-        <v>0.68987268518518519</v>
+        <v>0.88168981481481479</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1">
-        <v>0.69064814814814823</v>
+        <v>0.88184027777777774</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1">
-        <v>0.6910532407407407</v>
+        <v>0.8819907407407408</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
-        <v>0.69204861111111116</v>
+        <v>0.88214120370370364</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1">
-        <v>0.69219907407407411</v>
+        <v>0.8822916666666667</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
-        <v>0.69233796296296291</v>
+        <v>0.88243055555555561</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>0.69248842592592597</v>
+        <v>0.88261574074074067</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>0.69263888888888892</v>
+        <v>0.88268518518518524</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>0.69278935185185186</v>
+        <v>0.88275462962962958</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>0.69292824074074078</v>
+        <v>0.88282407407407415</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>0.69319444444444445</v>
+        <v>0.88289351851851849</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>0.69326388888888879</v>
+        <v>0.88296296296296306</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>0.69333333333333336</v>
+        <v>0.8830324074074074</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>0.6934027777777777</v>
+        <v>0.88310185185185175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>0.69347222222222227</v>
+        <v>0.88317129629629632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.88324074074074066</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.88331018518518523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.88530092592592602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.88543981481481471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.88559027777777777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.88574074074074083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.88589120370370367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.88604166666666673</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.88618055555555564</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.88633101851851848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.88651620370370365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.88658564814814822</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.88665509259259256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.88672453703703702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.88679398148148147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.88686342592592593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.88693287037037039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.88699074074074069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.88706018518518526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.8871296296296296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.88719907407407417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.88915509259259251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.88930555555555557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.88944444444444448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.88959490740740732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.88974537037037038</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.88989583333333344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.89003472222222213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.89018518518518519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.89033564814814825</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.89048611111111109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.89063657407407415</v>
       </c>
     </row>
   </sheetData>
@@ -1417,8 +2067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1514B9-51DA-4049-B8FD-5E75D5881575}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DEFC1A-CDE7-431A-BAFF-956AB62172EC}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1437,35 +2087,343 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>0.84335648148148146</v>
+        <v>0.72983796296296299</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.84363425925925928</v>
+        <v>0.72990740740740734</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.84487268518518521</v>
+        <v>0.7299768518518519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73004629629629625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7301157407407407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.73052083333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.73207175925925927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.73222222222222222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73236111111111113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.73251157407407408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73266203703703703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.73281249999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.73296296296296293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.73311342592592599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.73326388888888883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.73341435185185189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.7335532407407408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.73370370370370364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.7728356481481482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.77290509259259255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.772974537037037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.77304398148148146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.77311342592592591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.77340277777777777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.8158333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.81590277777777775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.81597222222222221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.81604166666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.81611111111111112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.81652777777777785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.81660879629629635</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +2432,1340 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BD2016-B347-452D-946F-A29FD8549AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89435686-6C60-49EE-B096-3099E8365117}">
+  <dimension ref="A1:C120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.81983796296296296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.81990740740740742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.81997685185185187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.82004629629629633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82011574074074067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.82018518518518524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.82025462962962958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.82032407407407415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.82039351851851849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.82046296296296306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.8205324074074074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.82447916666666676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.82454861111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.82461805555555545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.82468750000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.82476851851851851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.82483796296296286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.82490740740740742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.82497685185185177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.82505787037037026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.82512731481481483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.82519675925925917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.826238425925926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.8263194444444445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.82641203703703703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.8284259259259259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.828587962962963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.82873842592592595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.8288888888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.82903935185185185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.8291898148148148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.82934027777777775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.8294907407407407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.82964120370370376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.82979166666666659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.82994212962962965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.83009259259259249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.83024305555555555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.77203703703703708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.77218749999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.77233796296296298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.77248842592592604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.77263888888888888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.77277777777777779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.77293981481481477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.77309027777777783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.77322916666666675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.7734375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.77350694444444434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.77357638888888891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.77364583333333325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.77371527777777782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.77378472222222217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.77385416666666673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.77391203703703704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.77398148148148149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.77405092592592595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.7741203703703704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.77489583333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.77497685185185183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.77506944444444448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.77515046296296297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.77523148148148147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.77531250000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.77539351851851857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.77682870370370372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.77700231481481474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.77717592592592588</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.77734953703703702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.77752314814814805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.77768518518518526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.77807870370370369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.77905092592592595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.77920138888888879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.7793402777777777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.77949074074074076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.7796412037037036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.77979166666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.77994212962962972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.78009259259259256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.78024305555555562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.78045138888888888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.78052083333333344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.78059027777777779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.78065972222222213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.7807291666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.78079861111111104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.78086805555555561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.78093749999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.78100694444444441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.78107638888888886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.78113425925925928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.7819328703703704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.78200231481481486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.78209490740740739</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.78217592592592589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.78225694444444438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.78233796296296287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.78241898148148137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.7825347222222222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.78265046296296292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.78271990740740749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.78378472222222229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.78394675925925927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.78413194444444445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.78430555555555559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.78449074074074077</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.7846643518518519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.78484953703703697</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.78503472222222215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.78597222222222218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.78611111111111109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.78626157407407404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.78641203703703699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.78656250000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.78670138888888896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.7868518518518518</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.78700231481481486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.7871527777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E4DC6-2C53-4191-8C73-8F8795728588}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
